--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Cd34-Selp.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Cd34-Selp.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>141.3574043333333</v>
+        <v>319.073924</v>
       </c>
       <c r="H2">
-        <v>424.072213</v>
+        <v>957.221772</v>
       </c>
       <c r="I2">
-        <v>0.4954750229273863</v>
+        <v>0.6828333423212949</v>
       </c>
       <c r="J2">
-        <v>0.4954750229273862</v>
+        <v>0.6828333423212949</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>17.90215733333334</v>
+        <v>40.81054266666667</v>
       </c>
       <c r="N2">
-        <v>53.70647200000001</v>
+        <v>122.431628</v>
       </c>
       <c r="O2">
-        <v>0.9729544377046332</v>
+        <v>0.9943414173631485</v>
       </c>
       <c r="P2">
-        <v>0.9729544377046332</v>
+        <v>0.9943414173631485</v>
       </c>
       <c r="Q2">
-        <v>2530.602492606949</v>
+        <v>13021.57998922276</v>
       </c>
       <c r="R2">
-        <v>22775.42243346254</v>
+        <v>117194.2199030048</v>
       </c>
       <c r="S2">
-        <v>0.4820746223290053</v>
+        <v>0.6789694734265723</v>
       </c>
       <c r="T2">
-        <v>0.4820746223290053</v>
+        <v>0.6789694734265723</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>141.3574043333333</v>
+        <v>319.073924</v>
       </c>
       <c r="H3">
-        <v>424.072213</v>
+        <v>957.221772</v>
       </c>
       <c r="I3">
-        <v>0.4954750229273863</v>
+        <v>0.6828333423212949</v>
       </c>
       <c r="J3">
-        <v>0.4954750229273862</v>
+        <v>0.6828333423212949</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -623,22 +623,22 @@
         <v>0.03385</v>
       </c>
       <c r="O3">
-        <v>0.0006132316365204891</v>
+        <v>0.0002749163555820933</v>
       </c>
       <c r="P3">
-        <v>0.0006132316365204891</v>
+        <v>0.0002749163555820933</v>
       </c>
       <c r="Q3">
-        <v>1.594982712227778</v>
+        <v>3.600217442466666</v>
       </c>
       <c r="R3">
-        <v>14.35484441005</v>
+        <v>32.4019569822</v>
       </c>
       <c r="S3">
-        <v>0.000303840959164788</v>
+        <v>0.0001877220539409103</v>
       </c>
       <c r="T3">
-        <v>0.0003038409591647879</v>
+        <v>0.0001877220539409104</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>141.3574043333333</v>
+        <v>319.073924</v>
       </c>
       <c r="H4">
-        <v>424.072213</v>
+        <v>957.221772</v>
       </c>
       <c r="I4">
-        <v>0.4954750229273863</v>
+        <v>0.6828333423212949</v>
       </c>
       <c r="J4">
-        <v>0.4954750229273862</v>
+        <v>0.6828333423212949</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -685,22 +685,22 @@
         <v>0.322187</v>
       </c>
       <c r="O4">
-        <v>0.005836787630003747</v>
+        <v>0.002616675800765965</v>
       </c>
       <c r="P4">
-        <v>0.005836787630003747</v>
+        <v>0.002616675800765965</v>
       </c>
       <c r="Q4">
-        <v>15.18117267664789</v>
+        <v>34.26715678392933</v>
       </c>
       <c r="R4">
-        <v>136.630554089831</v>
+        <v>308.404411055364</v>
       </c>
       <c r="S4">
-        <v>0.002891982484798392</v>
+        <v>0.001786753482808274</v>
       </c>
       <c r="T4">
-        <v>0.002891982484798391</v>
+        <v>0.001786753482808275</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>141.3574043333333</v>
+        <v>319.073924</v>
       </c>
       <c r="H5">
-        <v>424.072213</v>
+        <v>957.221772</v>
       </c>
       <c r="I5">
-        <v>0.4954750229273863</v>
+        <v>0.6828333423212949</v>
       </c>
       <c r="J5">
-        <v>0.4954750229273862</v>
+        <v>0.6828333423212949</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.3789536666666667</v>
+        <v>0.113565</v>
       </c>
       <c r="N5">
-        <v>1.136861</v>
+        <v>0.340695</v>
       </c>
       <c r="O5">
-        <v>0.02059554302884254</v>
+        <v>0.002766990480503436</v>
       </c>
       <c r="P5">
-        <v>0.02059554302884254</v>
+        <v>0.002766990480503436</v>
       </c>
       <c r="Q5">
-        <v>53.56790668259923</v>
+        <v>36.23563017906</v>
       </c>
       <c r="R5">
-        <v>482.111160143393</v>
+        <v>326.12067161154</v>
       </c>
       <c r="S5">
-        <v>0.01020457715441773</v>
+        <v>0.001889393357973367</v>
       </c>
       <c r="T5">
-        <v>0.01020457715441772</v>
+        <v>0.001889393357973367</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>140.4344916666666</v>
+        <v>140.4344916666667</v>
       </c>
       <c r="H6">
-        <v>421.3034749999999</v>
+        <v>421.303475</v>
       </c>
       <c r="I6">
-        <v>0.4922401009448182</v>
+        <v>0.3005364779415257</v>
       </c>
       <c r="J6">
-        <v>0.4922401009448182</v>
+        <v>0.3005364779415257</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>17.90215733333334</v>
+        <v>40.81054266666667</v>
       </c>
       <c r="N6">
-        <v>53.70647200000001</v>
+        <v>122.431628</v>
       </c>
       <c r="O6">
-        <v>0.9729544377046332</v>
+        <v>0.9943414173631485</v>
       </c>
       <c r="P6">
-        <v>0.9729544377046332</v>
+        <v>0.9943414173631485</v>
       </c>
       <c r="Q6">
-        <v>2514.080364843355</v>
+        <v>5731.207814034145</v>
       </c>
       <c r="R6">
-        <v>22626.7232835902</v>
+        <v>51580.8703263073</v>
       </c>
       <c r="S6">
-        <v>0.4789271906304375</v>
+        <v>0.2988358674457052</v>
       </c>
       <c r="T6">
-        <v>0.4789271906304375</v>
+        <v>0.2988358674457052</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>140.4344916666666</v>
+        <v>140.4344916666667</v>
       </c>
       <c r="H7">
-        <v>421.3034749999999</v>
+        <v>421.303475</v>
       </c>
       <c r="I7">
-        <v>0.4922401009448182</v>
+        <v>0.3005364779415257</v>
       </c>
       <c r="J7">
-        <v>0.4922401009448182</v>
+        <v>0.3005364779415257</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -871,10 +871,10 @@
         <v>0.03385</v>
       </c>
       <c r="O7">
-        <v>0.0006132316365204891</v>
+        <v>0.0002749163555820933</v>
       </c>
       <c r="P7">
-        <v>0.0006132316365204891</v>
+        <v>0.0002749163555820933</v>
       </c>
       <c r="Q7">
         <v>1.584569180972222</v>
@@ -883,10 +883,10 @@
         <v>14.26112262875</v>
       </c>
       <c r="S7">
-        <v>0.0003018572026634016</v>
+        <v>8.262239323516241E-05</v>
       </c>
       <c r="T7">
-        <v>0.0003018572026634016</v>
+        <v>8.262239323516242E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>140.4344916666666</v>
+        <v>140.4344916666667</v>
       </c>
       <c r="H8">
-        <v>421.3034749999999</v>
+        <v>421.303475</v>
       </c>
       <c r="I8">
-        <v>0.4922401009448182</v>
+        <v>0.3005364779415257</v>
       </c>
       <c r="J8">
-        <v>0.4922401009448182</v>
+        <v>0.3005364779415257</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -933,10 +933,10 @@
         <v>0.322187</v>
       </c>
       <c r="O8">
-        <v>0.005836787630003747</v>
+        <v>0.002616675800765965</v>
       </c>
       <c r="P8">
-        <v>0.005836787630003747</v>
+        <v>0.002616675800765965</v>
       </c>
       <c r="Q8">
         <v>15.08205585553611</v>
@@ -945,10 +945,10 @@
         <v>135.738502699825</v>
       </c>
       <c r="S8">
-        <v>0.002873100932186511</v>
+        <v>0.0007864065290770243</v>
       </c>
       <c r="T8">
-        <v>0.002873100932186511</v>
+        <v>0.0007864065290770244</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,46 +971,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>140.4344916666666</v>
+        <v>140.4344916666667</v>
       </c>
       <c r="H9">
-        <v>421.3034749999999</v>
+        <v>421.303475</v>
       </c>
       <c r="I9">
-        <v>0.4922401009448182</v>
+        <v>0.3005364779415257</v>
       </c>
       <c r="J9">
-        <v>0.4922401009448182</v>
+        <v>0.3005364779415257</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.3789536666666667</v>
+        <v>0.113565</v>
       </c>
       <c r="N9">
-        <v>1.136861</v>
+        <v>0.340695</v>
       </c>
       <c r="O9">
-        <v>0.02059554302884254</v>
+        <v>0.002766990480503436</v>
       </c>
       <c r="P9">
-        <v>0.02059554302884254</v>
+        <v>0.002766990480503436</v>
       </c>
       <c r="Q9">
-        <v>53.21816554355277</v>
+        <v>15.948443046125</v>
       </c>
       <c r="R9">
-        <v>478.963489891975</v>
+        <v>143.535987415125</v>
       </c>
       <c r="S9">
-        <v>0.0101379521795308</v>
+        <v>0.0008315815735082323</v>
       </c>
       <c r="T9">
-        <v>0.0101379521795308</v>
+        <v>0.0008315815735082323</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.255982</v>
+        <v>7.479044333333333</v>
       </c>
       <c r="H10">
-        <v>9.767946</v>
+        <v>22.437133</v>
       </c>
       <c r="I10">
-        <v>0.01141261587045665</v>
+        <v>0.01600550986892662</v>
       </c>
       <c r="J10">
-        <v>0.01141261587045665</v>
+        <v>0.01600550986892662</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>17.90215733333334</v>
+        <v>40.81054266666667</v>
       </c>
       <c r="N10">
-        <v>53.70647200000001</v>
+        <v>122.431628</v>
       </c>
       <c r="O10">
-        <v>0.9729544377046332</v>
+        <v>0.9943414173631485</v>
       </c>
       <c r="P10">
-        <v>0.9729544377046332</v>
+        <v>0.9943414173631485</v>
       </c>
       <c r="Q10">
-        <v>58.28910203850134</v>
+        <v>305.2238578713916</v>
       </c>
       <c r="R10">
-        <v>524.6019183465121</v>
+        <v>2747.014720842524</v>
       </c>
       <c r="S10">
-        <v>0.01110395525697912</v>
+        <v>0.01591494136868835</v>
       </c>
       <c r="T10">
-        <v>0.01110395525697912</v>
+        <v>0.01591494136868835</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.255982</v>
+        <v>7.479044333333333</v>
       </c>
       <c r="H11">
-        <v>9.767946</v>
+        <v>22.437133</v>
       </c>
       <c r="I11">
-        <v>0.01141261587045665</v>
+        <v>0.01600550986892662</v>
       </c>
       <c r="J11">
-        <v>0.01141261587045665</v>
+        <v>0.01600550986892662</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1119,22 +1119,22 @@
         <v>0.03385</v>
       </c>
       <c r="O11">
-        <v>0.0006132316365204891</v>
+        <v>0.0002749163555820933</v>
       </c>
       <c r="P11">
-        <v>0.0006132316365204891</v>
+        <v>0.0002749163555820933</v>
       </c>
       <c r="Q11">
-        <v>0.03673833023333333</v>
+        <v>0.08438855022777778</v>
       </c>
       <c r="R11">
-        <v>0.3306449721</v>
+        <v>0.7594969520499999</v>
       </c>
       <c r="S11">
-        <v>6.998577107219835E-06</v>
+        <v>4.400176442398533E-06</v>
       </c>
       <c r="T11">
-        <v>6.998577107219835E-06</v>
+        <v>4.400176442398534E-06</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.255982</v>
+        <v>7.479044333333333</v>
       </c>
       <c r="H12">
-        <v>9.767946</v>
+        <v>22.437133</v>
       </c>
       <c r="I12">
-        <v>0.01141261587045665</v>
+        <v>0.01600550986892662</v>
       </c>
       <c r="J12">
-        <v>0.01141261587045665</v>
+        <v>0.01600550986892662</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1181,22 +1181,22 @@
         <v>0.322187</v>
       </c>
       <c r="O12">
-        <v>0.005836787630003747</v>
+        <v>0.002616675800765965</v>
       </c>
       <c r="P12">
-        <v>0.005836787630003747</v>
+        <v>0.002616675800765965</v>
       </c>
       <c r="Q12">
-        <v>0.3496783575446666</v>
+        <v>0.8032169522078889</v>
       </c>
       <c r="R12">
-        <v>3.147105217902</v>
+        <v>7.228952569871</v>
       </c>
       <c r="S12">
-        <v>6.66130151386658E-05</v>
+        <v>4.18812303529411E-05</v>
       </c>
       <c r="T12">
-        <v>6.66130151386658E-05</v>
+        <v>4.188123035294111E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,46 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.255982</v>
+        <v>7.479044333333333</v>
       </c>
       <c r="H13">
-        <v>9.767946</v>
+        <v>22.437133</v>
       </c>
       <c r="I13">
-        <v>0.01141261587045665</v>
+        <v>0.01600550986892662</v>
       </c>
       <c r="J13">
-        <v>0.01141261587045665</v>
+        <v>0.01600550986892662</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.3789536666666667</v>
+        <v>0.113565</v>
       </c>
       <c r="N13">
-        <v>1.136861</v>
+        <v>0.340695</v>
       </c>
       <c r="O13">
-        <v>0.02059554302884254</v>
+        <v>0.002766990480503436</v>
       </c>
       <c r="P13">
-        <v>0.02059554302884254</v>
+        <v>0.002766990480503436</v>
       </c>
       <c r="Q13">
-        <v>1.233866317500667</v>
+        <v>0.8493576697150002</v>
       </c>
       <c r="R13">
-        <v>11.104796857506</v>
+        <v>7.644219027435001</v>
       </c>
       <c r="S13">
-        <v>0.0002350490212316411</v>
+        <v>4.428709344292374E-05</v>
       </c>
       <c r="T13">
-        <v>0.0002350490212316411</v>
+        <v>4.428709344292374E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.248853</v>
+        <v>0.2918953333333333</v>
       </c>
       <c r="H14">
-        <v>0.7465590000000001</v>
+        <v>0.875686</v>
       </c>
       <c r="I14">
-        <v>0.0008722602573388759</v>
+        <v>0.0006246698682528143</v>
       </c>
       <c r="J14">
-        <v>0.0008722602573388758</v>
+        <v>0.0006246698682528143</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>17.90215733333334</v>
+        <v>40.81054266666667</v>
       </c>
       <c r="N14">
-        <v>53.70647200000001</v>
+        <v>122.431628</v>
       </c>
       <c r="O14">
-        <v>0.9729544377046332</v>
+        <v>0.9943414173631485</v>
       </c>
       <c r="P14">
-        <v>0.9729544377046332</v>
+        <v>0.9943414173631485</v>
       </c>
       <c r="Q14">
-        <v>4.455005558872001</v>
+        <v>11.91240695520089</v>
       </c>
       <c r="R14">
-        <v>40.09505002984801</v>
+        <v>107.211662596808</v>
       </c>
       <c r="S14">
-        <v>0.0008486694882112447</v>
+        <v>0.0006211351221825546</v>
       </c>
       <c r="T14">
-        <v>0.0008486694882112446</v>
+        <v>0.0006211351221825546</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.248853</v>
+        <v>0.2918953333333333</v>
       </c>
       <c r="H15">
-        <v>0.7465590000000001</v>
+        <v>0.875686</v>
       </c>
       <c r="I15">
-        <v>0.0008722602573388759</v>
+        <v>0.0006246698682528143</v>
       </c>
       <c r="J15">
-        <v>0.0008722602573388758</v>
+        <v>0.0006246698682528143</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1367,22 +1367,22 @@
         <v>0.03385</v>
       </c>
       <c r="O15">
-        <v>0.0006132316365204891</v>
+        <v>0.0002749163555820933</v>
       </c>
       <c r="P15">
-        <v>0.0006132316365204891</v>
+        <v>0.0002749163555820933</v>
       </c>
       <c r="Q15">
-        <v>0.00280789135</v>
+        <v>0.003293552344444444</v>
       </c>
       <c r="R15">
-        <v>0.02527102215</v>
+        <v>0.0296419711</v>
       </c>
       <c r="S15">
-        <v>5.348975850797019E-07</v>
+        <v>1.717319636220101E-07</v>
       </c>
       <c r="T15">
-        <v>5.348975850797018E-07</v>
+        <v>1.717319636220101E-07</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.248853</v>
+        <v>0.2918953333333333</v>
       </c>
       <c r="H16">
-        <v>0.7465590000000001</v>
+        <v>0.875686</v>
       </c>
       <c r="I16">
-        <v>0.0008722602573388759</v>
+        <v>0.0006246698682528143</v>
       </c>
       <c r="J16">
-        <v>0.0008722602573388758</v>
+        <v>0.0006246698682528143</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -1429,22 +1429,22 @@
         <v>0.322187</v>
       </c>
       <c r="O16">
-        <v>0.005836787630003747</v>
+        <v>0.002616675800765965</v>
       </c>
       <c r="P16">
-        <v>0.005836787630003747</v>
+        <v>0.002616675800765965</v>
       </c>
       <c r="Q16">
-        <v>0.026725733837</v>
+        <v>0.03134829392022222</v>
       </c>
       <c r="R16">
-        <v>0.240531604533</v>
+        <v>0.282134645282</v>
       </c>
       <c r="S16">
-        <v>5.091197880179437E-06</v>
+        <v>1.634558527724802E-06</v>
       </c>
       <c r="T16">
-        <v>5.091197880179436E-06</v>
+        <v>1.634558527724803E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.248853</v>
+        <v>0.2918953333333333</v>
       </c>
       <c r="H17">
-        <v>0.7465590000000001</v>
+        <v>0.875686</v>
       </c>
       <c r="I17">
-        <v>0.0008722602573388759</v>
+        <v>0.0006246698682528143</v>
       </c>
       <c r="J17">
-        <v>0.0008722602573388758</v>
+        <v>0.0006246698682528143</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.3789536666666667</v>
+        <v>0.113565</v>
       </c>
       <c r="N17">
-        <v>1.136861</v>
+        <v>0.340695</v>
       </c>
       <c r="O17">
-        <v>0.02059554302884254</v>
+        <v>0.002766990480503436</v>
       </c>
       <c r="P17">
-        <v>0.02059554302884254</v>
+        <v>0.002766990480503436</v>
       </c>
       <c r="Q17">
-        <v>0.09430375681100001</v>
+        <v>0.03314909353000001</v>
       </c>
       <c r="R17">
-        <v>0.8487338112990002</v>
+        <v>0.29834184177</v>
       </c>
       <c r="S17">
-        <v>1.796467366237208E-05</v>
+        <v>1.728455578912872E-06</v>
       </c>
       <c r="T17">
-        <v>1.796467366237208E-05</v>
+        <v>1.728455578912872E-06</v>
       </c>
     </row>
   </sheetData>
